--- a/json-converter/tree.xlsx
+++ b/json-converter/tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jignesh.tejani/Desktop/Personal/tejani-family-tree/json-converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34442914-D3CD-AA40-AA92-6F916923AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726542A-1632-8B48-B5D5-AF2EA0BB1854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ramji Dada" sheetId="1" r:id="rId1"/>
@@ -4322,9 +4322,6 @@
     <t>Jash RAJESHBHAI</t>
   </si>
   <si>
-    <t>જીવદાદા</t>
-  </si>
-  <si>
     <t>કરશનદાદા જીનાદાદા</t>
   </si>
   <si>
@@ -5445,6 +5442,9 @@
   </si>
   <si>
     <t>હરજીદાદા</t>
+  </si>
+  <si>
+    <t>જીવાદાદા</t>
   </si>
 </sst>
 </file>
@@ -6501,10 +6501,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C2" t="s">
         <v>255</v>
@@ -6512,255 +6512,255 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B5" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B7" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C7" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B8" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C8" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B9" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C9" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B10" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C10" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B11" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C11" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B12" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C12" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C13" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B14" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C14" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B15" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C15" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B16" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C17" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B18" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C18" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B19" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C19" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B20" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C20" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B21" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C21" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B22" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C22" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B23" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C23" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B24" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C24" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B25" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C25" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6771,101 +6771,101 @@
         <v>996</v>
       </c>
       <c r="C26" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B27" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C27" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B28" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C28" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B29" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C29" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B30" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C30" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B31" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C31" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B32" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C32" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D33" t="s">
         <v>1511</v>
       </c>
-      <c r="B33" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1512</v>
-      </c>
       <c r="E33" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B34" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C34" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D34" t="s">
         <v>139</v>
@@ -6876,13 +6876,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C35" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D35" t="s">
         <v>685</v>
@@ -6893,27 +6893,27 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B36" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C36" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D37" t="s">
         <v>1516</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1517</v>
       </c>
       <c r="E37" t="s">
         <v>1258</v>
@@ -6921,16 +6921,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D38" t="s">
         <v>1518</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1519</v>
       </c>
       <c r="E38" t="s">
         <v>1305</v>
@@ -6938,41 +6938,41 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D39" t="s">
         <v>1520</v>
       </c>
-      <c r="B39" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1521</v>
-      </c>
       <c r="E39" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B40" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C40" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B41" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C41" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D41" t="s">
         <v>147</v>
@@ -6983,268 +6983,268 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D42" t="s">
         <v>1524</v>
       </c>
-      <c r="B42" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1525</v>
-      </c>
       <c r="E42" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D43" t="s">
         <v>1526</v>
       </c>
-      <c r="B43" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1527</v>
-      </c>
       <c r="E43" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B44" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C44" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B45" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C45" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B46" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C46" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B47" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C47" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B48" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C48" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B49" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C49" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B50" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C50" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B51" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C51" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B52" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C52" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B53" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C53" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B54" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C54" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B55" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C55" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B56" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C56" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C57" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B58" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C58" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B59" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C59" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B60" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C60" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D61" t="s">
         <v>1545</v>
       </c>
-      <c r="B61" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1546</v>
-      </c>
       <c r="E61" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D62" t="s">
         <v>1547</v>
       </c>
-      <c r="B62" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1548</v>
-      </c>
       <c r="E62" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B63" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C63" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D63" t="s">
         <v>153</v>
@@ -7255,16 +7255,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D64" t="s">
         <v>1550</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1551</v>
       </c>
       <c r="E64" t="s">
         <v>1228</v>
@@ -7272,74 +7272,74 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B65" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C65" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B66" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C66" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D67" t="s">
         <v>1554</v>
       </c>
-      <c r="B67" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1555</v>
-      </c>
       <c r="E67" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B68" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C68" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B69" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C69" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B70" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C70" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D70" t="s">
         <v>647</v>
@@ -7350,41 +7350,41 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B71" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C71" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D72" t="s">
         <v>1560</v>
       </c>
-      <c r="B72" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1561</v>
-      </c>
       <c r="E72" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B73" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C73" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D73" t="s">
         <v>262</v>
@@ -7395,310 +7395,310 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B74" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C74" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B75" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C75" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B76" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C76" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B77" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C77" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B78" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C78" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B79" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C79" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B80" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C80" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B81" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C81" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B82" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C82" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B83" t="s">
         <v>1129</v>
       </c>
       <c r="C83" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B84" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C84" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B85" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C85" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B86" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C86" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B87" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C87" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B88" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C88" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B89" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C89" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B90" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C90" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B91" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C91" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B92" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C92" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B93" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C93" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B94" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C94" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B95" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C95" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B96" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C96" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B97" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C97" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B98" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C98" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B99" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C99" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B100" t="s">
         <v>1081</v>
       </c>
       <c r="C100" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B101" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C101" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
   </sheetData>
@@ -7710,8 +7710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE725D1D-BEE3-7448-B666-DBA19C17206F}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C2" t="s">
         <v>255</v>
@@ -7767,41 +7767,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D5" t="s">
         <v>1699</v>
       </c>
-      <c r="B5" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1700</v>
-      </c>
       <c r="E5" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G5" t="s">
         <v>1391</v>
@@ -7809,16 +7809,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D6" t="s">
         <v>1701</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1702</v>
       </c>
       <c r="E6" t="s">
         <v>1211</v>
@@ -7832,16 +7832,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D7" t="s">
         <v>1703</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1704</v>
       </c>
       <c r="E7" t="s">
         <v>1226</v>
@@ -7855,13 +7855,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B8" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G8" t="s">
         <v>1386</v>
@@ -7869,13 +7869,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B9" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C9" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G9" t="s">
         <v>1386</v>
@@ -7883,19 +7883,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D10" t="s">
         <v>1707</v>
       </c>
-      <c r="B10" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1708</v>
-      </c>
       <c r="E10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F10">
         <v>9737322862</v>
@@ -7906,13 +7906,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B11" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C11" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G11" t="s">
         <v>1386</v>
@@ -7920,27 +7920,27 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B12" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C12" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D13" t="s">
         <v>1711</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1712</v>
       </c>
       <c r="E13" t="s">
         <v>1229</v>
@@ -7949,35 +7949,35 @@
         <v>7990450554</v>
       </c>
       <c r="G13" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B14" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C14" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D15" t="s">
         <v>1715</v>
       </c>
-      <c r="B15" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1716</v>
-      </c>
       <c r="E15" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F15">
         <v>8347048437</v>
@@ -7988,16 +7988,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D16" t="s">
         <v>1717</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1718</v>
       </c>
       <c r="E16" t="s">
         <v>1293</v>
@@ -8011,49 +8011,49 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B17" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C17" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B18" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C18" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B19" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C19" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D20" t="s">
         <v>1722</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1723</v>
       </c>
       <c r="E20" t="s">
         <v>1214</v>
@@ -8067,19 +8067,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D21" t="s">
         <v>1724</v>
       </c>
-      <c r="B21" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1725</v>
-      </c>
       <c r="E21" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F21">
         <v>9624642183</v>
@@ -8090,24 +8090,24 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B22" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C22" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B23" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C23" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F23">
         <v>7016025153</v>
@@ -8118,76 +8118,76 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D24" t="s">
         <v>1728</v>
       </c>
-      <c r="B24" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1729</v>
-      </c>
       <c r="E24" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F24">
         <v>9712677539</v>
       </c>
       <c r="G24" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B25" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C25" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="F25">
         <v>6354561889</v>
       </c>
       <c r="G25" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F26" t="s">
         <v>1732</v>
       </c>
-      <c r="B26" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1728</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1733</v>
-      </c>
       <c r="G26" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D27" t="s">
         <v>1734</v>
       </c>
-      <c r="B27" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1735</v>
-      </c>
       <c r="E27" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G27" t="s">
         <v>1391</v>
@@ -8195,16 +8195,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D28" t="s">
         <v>1736</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1737</v>
       </c>
       <c r="E28" t="s">
         <v>1186</v>
@@ -8218,19 +8218,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D29" t="s">
         <v>1738</v>
       </c>
-      <c r="B29" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1739</v>
-      </c>
       <c r="E29" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F29">
         <v>9925714747</v>
@@ -8241,38 +8241,38 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B30" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C30" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B31" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C31" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D32" t="s">
         <v>1742</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1743</v>
       </c>
       <c r="E32" t="s">
         <v>1206</v>
@@ -8286,30 +8286,30 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B33" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C33" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D34" t="s">
         <v>1745</v>
       </c>
-      <c r="B34" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1746</v>
-      </c>
       <c r="E34" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F34">
         <v>9099430228</v>
@@ -8320,30 +8320,30 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B35" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C35" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D36" t="s">
         <v>1748</v>
       </c>
-      <c r="B36" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1749</v>
-      </c>
       <c r="E36" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F36">
         <v>9904871285</v>
@@ -8354,36 +8354,36 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B37" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C37" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F37">
         <v>6353853253</v>
       </c>
       <c r="G37" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D38" t="s">
         <v>1752</v>
       </c>
-      <c r="B38" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1753</v>
-      </c>
       <c r="E38" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="F38">
         <v>9879315164</v>
@@ -8394,13 +8394,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B39" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C39" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F39">
         <v>6354489894</v>
@@ -8411,13 +8411,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B40" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C40" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="G40" t="s">
         <v>1386</v>
@@ -12461,8 +12461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A570EB9A-2A33-E14F-B182-8ADCC13D7802}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12512,7 +12512,7 @@
         <v>790</v>
       </c>
       <c r="B2" t="s">
-        <v>1430</v>
+        <v>1804</v>
       </c>
       <c r="C2" t="s">
         <v>255</v>
@@ -13264,7 +13264,7 @@
         <v>1355</v>
       </c>
       <c r="E31" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -13934,7 +13934,7 @@
         <v>1374</v>
       </c>
       <c r="E57" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F57" s="13"/>
     </row>
@@ -14318,7 +14318,7 @@
         <v>1375</v>
       </c>
       <c r="B76" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>791</v>
@@ -14334,7 +14334,7 @@
         <v>1376</v>
       </c>
       <c r="B77" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>1375</v>
@@ -14343,7 +14343,7 @@
         <v>1377</v>
       </c>
       <c r="E77" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -14355,7 +14355,7 @@
         <v>1378</v>
       </c>
       <c r="B78" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>1376</v>
@@ -14364,7 +14364,7 @@
         <v>1379</v>
       </c>
       <c r="E78" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -14376,7 +14376,7 @@
         <v>1380</v>
       </c>
       <c r="B79" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>1376</v>
@@ -14385,7 +14385,7 @@
         <v>1381</v>
       </c>
       <c r="E79" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -14397,7 +14397,7 @@
         <v>1382</v>
       </c>
       <c r="B80" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>1380</v>
@@ -14406,7 +14406,7 @@
         <v>1383</v>
       </c>
       <c r="E80" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -14418,7 +14418,7 @@
         <v>1384</v>
       </c>
       <c r="B81" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>1382</v>
@@ -14427,7 +14427,7 @@
         <v>1385</v>
       </c>
       <c r="E81" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F81" s="20">
         <v>7016498264</v>
@@ -14442,7 +14442,7 @@
         <v>1387</v>
       </c>
       <c r="B82" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>1384</v>
@@ -14459,7 +14459,7 @@
         <v>1388</v>
       </c>
       <c r="B83" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>1382</v>
@@ -14478,7 +14478,7 @@
         <v>1389</v>
       </c>
       <c r="B84" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>1380</v>
@@ -14502,7 +14502,7 @@
         <v>1392</v>
       </c>
       <c r="B85" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>1389</v>
@@ -14521,7 +14521,7 @@
         <v>1394</v>
       </c>
       <c r="B86" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>1375</v>
@@ -14536,7 +14536,7 @@
         <v>1395</v>
       </c>
       <c r="B87" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>1394</v>
@@ -14545,7 +14545,7 @@
         <v>1396</v>
       </c>
       <c r="E87" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F87" s="20">
         <v>6353553004</v>
@@ -14560,7 +14560,7 @@
         <v>1397</v>
       </c>
       <c r="B88" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>1395</v>
@@ -14569,7 +14569,7 @@
         <v>1398</v>
       </c>
       <c r="E88" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F88" s="20">
         <v>9819811536</v>
@@ -14584,7 +14584,7 @@
         <v>1399</v>
       </c>
       <c r="B89" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>1397</v>
@@ -14593,7 +14593,7 @@
         <v>1400</v>
       </c>
       <c r="E89" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="19" t="s">
@@ -14606,7 +14606,7 @@
         <v>1401</v>
       </c>
       <c r="B90" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>1397</v>
@@ -14623,7 +14623,7 @@
         <v>1402</v>
       </c>
       <c r="B91" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>1395</v>
@@ -14632,7 +14632,7 @@
         <v>1403</v>
       </c>
       <c r="E91" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F91" s="20">
         <v>9925792394</v>
@@ -14647,7 +14647,7 @@
         <v>1404</v>
       </c>
       <c r="B92" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>1402</v>
@@ -14664,7 +14664,7 @@
         <v>1405</v>
       </c>
       <c r="B93" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>1395</v>
@@ -14673,7 +14673,7 @@
         <v>1406</v>
       </c>
       <c r="E93" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F93" s="20">
         <v>9322244035</v>
@@ -14688,7 +14688,7 @@
         <v>1407</v>
       </c>
       <c r="B94" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>1405</v>
@@ -14705,7 +14705,7 @@
         <v>1408</v>
       </c>
       <c r="B95" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>1375</v>
@@ -14720,7 +14720,7 @@
         <v>1409</v>
       </c>
       <c r="B96" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>1408</v>
@@ -14729,7 +14729,7 @@
         <v>1410</v>
       </c>
       <c r="E96" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
@@ -14740,7 +14740,7 @@
         <v>1411</v>
       </c>
       <c r="B97" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>1409</v>
@@ -14749,7 +14749,7 @@
         <v>1412</v>
       </c>
       <c r="E97" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
@@ -14760,7 +14760,7 @@
         <v>1413</v>
       </c>
       <c r="B98" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>1411</v>
@@ -14769,7 +14769,7 @@
         <v>1414</v>
       </c>
       <c r="E98" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F98" s="20">
         <v>9429094628</v>
@@ -14784,7 +14784,7 @@
         <v>1416</v>
       </c>
       <c r="B99" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>1413</v>
@@ -14801,7 +14801,7 @@
         <v>1417</v>
       </c>
       <c r="B100" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>1408</v>
@@ -14810,7 +14810,7 @@
         <v>1418</v>
       </c>
       <c r="E100" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
@@ -14821,7 +14821,7 @@
         <v>1419</v>
       </c>
       <c r="B101" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>1417</v>
@@ -14830,7 +14830,7 @@
         <v>1420</v>
       </c>
       <c r="E101" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
@@ -14841,7 +14841,7 @@
         <v>1421</v>
       </c>
       <c r="B102" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>1419</v>
@@ -14850,7 +14850,7 @@
         <v>1422</v>
       </c>
       <c r="E102" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F102" s="20">
         <v>9737293631</v>
@@ -14865,7 +14865,7 @@
         <v>1424</v>
       </c>
       <c r="B103" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>1421</v>
@@ -14880,7 +14880,7 @@
         <v>1425</v>
       </c>
       <c r="B104" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>1417</v>
@@ -14904,7 +14904,7 @@
         <v>1427</v>
       </c>
       <c r="B105" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>1425</v>
@@ -14919,7 +14919,7 @@
         <v>1428</v>
       </c>
       <c r="B106" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>1425</v>
@@ -14934,7 +14934,7 @@
         <v>1429</v>
       </c>
       <c r="B107" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>1425</v>

--- a/json-converter/tree.xlsx
+++ b/json-converter/tree.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jignesh.tejani/Desktop/Personal/tejani-family-tree/json-converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1866B5-AEA3-574B-9C9D-D9BE1D48BD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB363E7-37FF-8C47-8E33-99EDF7D2DA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Devji-1 Dada" sheetId="1" r:id="rId1"/>
-    <sheet name="Devji-2 Dada" sheetId="12" r:id="rId2"/>
+    <sheet name="Devji Dada" sheetId="1" r:id="rId1"/>
+    <sheet name="Pragaji Dada" sheetId="12" r:id="rId2"/>
     <sheet name="Bhagwan Dada" sheetId="13" r:id="rId3"/>
     <sheet name="Bhavan Dada" sheetId="14" r:id="rId4"/>
     <sheet name="Diyal Dada" sheetId="15" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="1926">
   <si>
     <t>name</t>
   </si>
@@ -4536,9 +4536,6 @@
     <t>nanjibhai devjibhai</t>
   </si>
   <si>
-    <t>devjibhai-2 tejaniparivar</t>
-  </si>
-  <si>
     <t>સિયાબેન</t>
   </si>
   <si>
@@ -5797,6 +5794,18 @@
   </si>
   <si>
     <t xml:space="preserve">ક્રિષ્નાબેન </t>
+  </si>
+  <si>
+    <t>pragajibhai tejaniparivar</t>
+  </si>
+  <si>
+    <t>devjibhai pragajibhai</t>
+  </si>
+  <si>
+    <t>દેવજીભાઈ પ્રાગજીભાઈ</t>
+  </si>
+  <si>
+    <t>પ્રાગજીભાઈ</t>
   </si>
 </sst>
 </file>
@@ -6255,8 +6264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6307,7 +6316,7 @@
         <v>561</v>
       </c>
       <c r="B2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -6346,7 +6355,7 @@
         <v>1498</v>
       </c>
       <c r="D5" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E5" t="s">
         <v>1018</v>
@@ -6363,7 +6372,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E6" t="s">
         <v>1019</v>
@@ -6386,7 +6395,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E7" t="s">
         <v>920</v>
@@ -6412,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E8" t="s">
         <v>945</v>
@@ -6429,10 +6438,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B9" t="s">
         <v>1532</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1533</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -6452,7 +6461,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E10" t="s">
         <v>939</v>
@@ -6478,7 +6487,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E11" t="s">
         <v>915</v>
@@ -6504,10 +6513,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E12" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="G12" t="s">
         <v>56</v>
@@ -6518,10 +6527,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B13" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -6532,10 +6541,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B14" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -6558,7 +6567,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E15" t="s">
         <v>964</v>
@@ -6566,10 +6575,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B16" t="s">
         <v>1508</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1509</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -6586,10 +6595,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B17" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -6620,7 +6629,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E19" t="s">
         <v>997</v>
@@ -6637,7 +6646,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E20" t="s">
         <v>1014</v>
@@ -6660,7 +6669,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E21" t="s">
         <v>930</v>
@@ -6674,10 +6683,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B22" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -6688,10 +6697,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B23" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -6702,10 +6711,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B24" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -6728,7 +6737,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E25" t="s">
         <v>968</v>
@@ -6742,10 +6751,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B26" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
@@ -6756,10 +6765,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -6949,10 +6958,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B44" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -7048,10 +7057,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B50" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
@@ -7108,10 +7117,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B53" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -7137,7 +7146,7 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E54" t="s">
         <v>949</v>
@@ -7163,7 +7172,7 @@
         <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E55" t="s">
         <v>965</v>
@@ -7180,10 +7189,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B56" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C56" t="s">
         <v>35</v>
@@ -7217,10 +7226,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B58" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -7270,7 +7279,7 @@
         <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E62" t="s">
         <v>1016</v>
@@ -7287,7 +7296,7 @@
         <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E63" t="s">
         <v>951</v>
@@ -7304,7 +7313,7 @@
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E64" t="s">
         <v>1017</v>
@@ -7321,7 +7330,7 @@
         <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E65" t="s">
         <v>954</v>
@@ -7338,7 +7347,7 @@
         <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E66" t="s">
         <v>946</v>
@@ -7355,7 +7364,7 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E67" t="s">
         <v>943</v>
@@ -7372,7 +7381,7 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E68" t="s">
         <v>968</v>
@@ -7391,7 +7400,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B70" t="s">
         <v>1329</v>
@@ -7402,13 +7411,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B71" t="s">
         <v>1812</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>1813</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -7419,7 +7428,7 @@
         <v>1241</v>
       </c>
       <c r="C72" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -7727,10 +7736,10 @@
         <v>1268</v>
       </c>
       <c r="C100" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D100" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E100" t="s">
         <v>1330</v>
@@ -7747,7 +7756,7 @@
         <v>1172</v>
       </c>
       <c r="D101" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E101" t="s">
         <v>1019</v>
@@ -7764,7 +7773,7 @@
         <v>1173</v>
       </c>
       <c r="D102" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E102" t="s">
         <v>920</v>
@@ -7792,7 +7801,7 @@
         <v>1172</v>
       </c>
       <c r="D104" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E104" t="s">
         <v>982</v>
@@ -7809,7 +7818,7 @@
         <v>1176</v>
       </c>
       <c r="D105" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E105" t="s">
         <v>1015</v>
@@ -7826,7 +7835,7 @@
         <v>1177</v>
       </c>
       <c r="D106" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E106" t="s">
         <v>1331</v>
@@ -7854,7 +7863,7 @@
         <v>1176</v>
       </c>
       <c r="D108" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E108" t="s">
         <v>930</v>
@@ -7871,7 +7880,7 @@
         <v>1180</v>
       </c>
       <c r="D109" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E109" t="s">
         <v>1332</v>
@@ -7888,7 +7897,7 @@
         <v>1180</v>
       </c>
       <c r="D110" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E110" t="s">
         <v>1333</v>
@@ -7913,7 +7922,7 @@
         <v>1279</v>
       </c>
       <c r="C112" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -8089,10 +8098,10 @@
         <v>1294</v>
       </c>
       <c r="C128" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D128" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E128" t="s">
         <v>1334</v>
@@ -8109,7 +8118,7 @@
         <v>1200</v>
       </c>
       <c r="D129" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E129" t="s">
         <v>1335</v>
@@ -8126,7 +8135,7 @@
         <v>1201</v>
       </c>
       <c r="D130" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E130" t="s">
         <v>946</v>
@@ -8143,7 +8152,7 @@
         <v>1202</v>
       </c>
       <c r="D131" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E131" t="s">
         <v>957</v>
@@ -8154,7 +8163,7 @@
         <v>1204</v>
       </c>
       <c r="B132" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C132" t="s">
         <v>1203</v>
@@ -8182,7 +8191,7 @@
         <v>1202</v>
       </c>
       <c r="D134" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E134" t="s">
         <v>1336</v>
@@ -8221,7 +8230,7 @@
         <v>1202</v>
       </c>
       <c r="D137" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E137" t="s">
         <v>955</v>
@@ -8249,7 +8258,7 @@
         <v>1201</v>
       </c>
       <c r="D139" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E139" t="s">
         <v>1337</v>
@@ -8266,7 +8275,7 @@
         <v>1211</v>
       </c>
       <c r="D140" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E140" t="s">
         <v>978</v>
@@ -8588,10 +8597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8141546-CAF7-DB4B-BA9B-3422AEA63CD2}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8637,10 +8646,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>1502</v>
+        <v>1922</v>
       </c>
       <c r="B2" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>196</v>
@@ -8648,43 +8657,43 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>1923</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>1924</v>
       </c>
       <c r="C3" t="s">
-        <v>1502</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
@@ -8692,34 +8701,45 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>117</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>595</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8816,7 +8836,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>996</v>
@@ -8833,7 +8853,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>997</v>
@@ -8859,7 +8879,7 @@
         <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>953</v>
@@ -8898,7 +8918,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>602</v>
@@ -8907,7 +8927,7 @@
         <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>945</v>
@@ -8924,24 +8944,24 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1745</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8955,7 +8975,7 @@
         <v>120</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>949</v>
@@ -8981,7 +9001,7 @@
         <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>998</v>
@@ -9012,7 +9032,7 @@
         <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>126</v>
@@ -9020,19 +9040,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>1874</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>1875</v>
       </c>
       <c r="F16" s="2">
         <v>9714477068</v>
@@ -9046,24 +9066,24 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>1877</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>1878</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9077,7 +9097,7 @@
         <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>999</v>
@@ -9103,7 +9123,7 @@
         <v>129</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>978</v>
@@ -9151,7 +9171,7 @@
         <v>120</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>940</v>
@@ -9177,7 +9197,7 @@
         <v>133</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1000</v>
@@ -9214,7 +9234,7 @@
         <v>120</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>916</v>
@@ -9240,7 +9260,7 @@
         <v>136</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1001</v>
@@ -9288,7 +9308,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>945</v>
@@ -9327,16 +9347,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>1002</v>
@@ -9353,13 +9373,13 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>1759</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9384,7 +9404,7 @@
         <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>922</v>
@@ -9401,7 +9421,7 @@
         <v>144</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>1003</v>
@@ -9427,7 +9447,7 @@
         <v>145</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>1004</v>
@@ -9469,7 +9489,7 @@
         <v>144</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>949</v>
@@ -9495,7 +9515,7 @@
         <v>149</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>1005</v>
@@ -9543,7 +9563,7 @@
         <v>144</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>917</v>
@@ -9600,7 +9620,7 @@
         <v>144</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>1006</v>
@@ -9666,7 +9686,7 @@
         <v>143</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>916</v>
@@ -9683,7 +9703,7 @@
         <v>159</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>946</v>
@@ -9709,7 +9729,7 @@
         <v>563</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>968</v>
@@ -9740,16 +9760,16 @@
         <v>163</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>1886</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>1887</v>
       </c>
       <c r="F55" s="2">
         <v>9714390681</v>
@@ -9772,7 +9792,7 @@
         <v>159</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>940</v>
@@ -9789,7 +9809,7 @@
         <v>164</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>973</v>
@@ -9815,7 +9835,7 @@
         <v>159</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>1008</v>
@@ -9863,7 +9883,7 @@
         <v>143</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>1009</v>
@@ -9883,7 +9903,7 @@
         <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>933</v>
@@ -9940,7 +9960,7 @@
         <v>169</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>979</v>
@@ -9997,7 +10017,7 @@
         <v>143</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>916</v>
@@ -10014,7 +10034,7 @@
         <v>176</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>1010</v>
@@ -10045,7 +10065,7 @@
         <v>179</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>177</v>
@@ -10062,7 +10082,7 @@
         <v>118</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>937</v>
@@ -10079,7 +10099,7 @@
         <v>180</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>1011</v>
@@ -10096,7 +10116,7 @@
         <v>181</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>1012</v>
@@ -10122,7 +10142,7 @@
         <v>182</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>923</v>
@@ -10142,7 +10162,7 @@
         <v>184</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>183</v>
@@ -10167,16 +10187,16 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>1781</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1782</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>1013</v>
@@ -10193,7 +10213,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>660</v>
@@ -10202,7 +10222,7 @@
         <v>181</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>928</v>
@@ -10219,13 +10239,13 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>661</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F80" s="2">
         <v>12269615604</v>
@@ -10239,13 +10259,13 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>227</v>
@@ -10262,7 +10282,7 @@
         <v>180</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>1014</v>
@@ -10285,7 +10305,7 @@
         <v>186</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>1015</v>
@@ -10348,7 +10368,7 @@
         <v>180</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>975</v>
@@ -10371,7 +10391,7 @@
         <v>190</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>1015</v>
@@ -10388,16 +10408,16 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>1788</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>1789</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>1007</v>
@@ -10437,7 +10457,7 @@
         <v>190</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>945</v>
@@ -10548,7 +10568,7 @@
         <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E2" t="s">
         <v>937</v>
@@ -10568,7 +10588,7 @@
         <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E3" t="s">
         <v>987</v>
@@ -10585,7 +10605,7 @@
         <v>231</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E4" t="s">
         <v>916</v>
@@ -10605,7 +10625,7 @@
         <v>232</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E5" t="s">
         <v>989</v>
@@ -10631,7 +10651,7 @@
         <v>233</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E6" t="s">
         <v>990</v>
@@ -10698,7 +10718,7 @@
         <v>233</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E9" t="s">
         <v>966</v>
@@ -10715,10 +10735,10 @@
     </row>
     <row r="10" spans="1:10" ht="17">
       <c r="A10" s="4" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B10" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>237</v>
@@ -10783,7 +10803,7 @@
         <v>232</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E13" t="s">
         <v>943</v>
@@ -10807,7 +10827,7 @@
         <v>240</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E14" t="s">
         <v>991</v>
@@ -10852,7 +10872,7 @@
         <v>240</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E16" t="s">
         <v>992</v>
@@ -10918,7 +10938,7 @@
         <v>232</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E19" t="s">
         <v>993</v>
@@ -10938,7 +10958,7 @@
         <v>231</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E20" t="s">
         <v>988</v>
@@ -10958,7 +10978,7 @@
         <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E21" t="s">
         <v>994</v>
@@ -11041,7 +11061,7 @@
         <v>247</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E25" t="s">
         <v>917</v>
@@ -11105,7 +11125,7 @@
         <v>247</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E28" t="s">
         <v>995</v>
@@ -11182,7 +11202,7 @@
         <v>231</v>
       </c>
       <c r="D32" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E32" t="s">
         <v>996</v>
@@ -11199,7 +11219,7 @@
         <v>259</v>
       </c>
       <c r="D33" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E33" t="s">
         <v>925</v>
@@ -11276,7 +11296,7 @@
         <v>259</v>
       </c>
       <c r="D37" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E37" t="s">
         <v>957</v>
@@ -11336,7 +11356,7 @@
         <v>259</v>
       </c>
       <c r="D40" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E40" t="s">
         <v>977</v>
@@ -11373,7 +11393,7 @@
         <v>269</v>
       </c>
       <c r="B42" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C42" t="s">
         <v>267</v>
@@ -11396,7 +11416,7 @@
         <v>231</v>
       </c>
       <c r="D43" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E43" t="s">
         <v>930</v>
@@ -11422,7 +11442,7 @@
         <v>270</v>
       </c>
       <c r="D44" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E44" t="s">
         <v>947</v>
@@ -11589,7 +11609,7 @@
         <v>562</v>
       </c>
       <c r="D3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E3" t="s">
         <v>1330</v>
@@ -11606,7 +11626,7 @@
         <v>1407</v>
       </c>
       <c r="D4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E4" t="s">
         <v>1484</v>
@@ -11623,7 +11643,7 @@
         <v>1408</v>
       </c>
       <c r="D5" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E5" t="s">
         <v>936</v>
@@ -11649,7 +11669,7 @@
         <v>1409</v>
       </c>
       <c r="D6" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E6" t="s">
         <v>966</v>
@@ -11669,7 +11689,7 @@
         <v>1411</v>
       </c>
       <c r="B7" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C7" t="s">
         <v>1410</v>
@@ -11677,16 +11697,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B8" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C8" t="s">
         <v>1410</v>
       </c>
       <c r="D8" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11700,7 +11720,7 @@
         <v>1409</v>
       </c>
       <c r="D9" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E9" t="s">
         <v>1485</v>
@@ -11717,10 +11737,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B10" t="s">
         <v>1903</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1904</v>
       </c>
       <c r="C10" t="s">
         <v>1412</v>
@@ -11737,7 +11757,7 @@
         <v>1408</v>
       </c>
       <c r="D11" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E11" t="s">
         <v>1396</v>
@@ -11763,7 +11783,7 @@
         <v>1413</v>
       </c>
       <c r="D12" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E12" t="s">
         <v>1003</v>
@@ -11780,10 +11800,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B13" t="s">
         <v>1905</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1906</v>
       </c>
       <c r="C13" t="s">
         <v>1414</v>
@@ -11800,7 +11820,7 @@
         <v>1408</v>
       </c>
       <c r="D14" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E14" t="s">
         <v>933</v>
@@ -11820,7 +11840,7 @@
         <v>1416</v>
       </c>
       <c r="B15" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C15" t="s">
         <v>1415</v>
@@ -11828,10 +11848,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B16" t="s">
         <v>1907</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1908</v>
       </c>
       <c r="C16" t="s">
         <v>1415</v>
@@ -11848,7 +11868,7 @@
         <v>1408</v>
       </c>
       <c r="D17" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E17" t="s">
         <v>950</v>
@@ -11865,10 +11885,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B18" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C18" t="s">
         <v>1417</v>
@@ -11879,7 +11899,7 @@
         <v>1418</v>
       </c>
       <c r="B19" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C19" t="s">
         <v>1417</v>
@@ -11887,10 +11907,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B20" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C20" t="s">
         <v>1417</v>
@@ -11907,7 +11927,7 @@
         <v>1407</v>
       </c>
       <c r="D21" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E21" t="s">
         <v>1486</v>
@@ -11924,7 +11944,7 @@
         <v>1419</v>
       </c>
       <c r="D22" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E22" t="s">
         <v>1402</v>
@@ -11941,7 +11961,7 @@
         <v>1420</v>
       </c>
       <c r="D23" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E23" t="s">
         <v>939</v>
@@ -11952,7 +11972,7 @@
         <v>1495</v>
       </c>
       <c r="B24" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C24" t="s">
         <v>1421</v>
@@ -11963,7 +11983,7 @@
         <v>1422</v>
       </c>
       <c r="B25" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C25" t="s">
         <v>1421</v>
@@ -11980,7 +12000,7 @@
         <v>1420</v>
       </c>
       <c r="D26" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E26" t="s">
         <v>1487</v>
@@ -11991,7 +12011,7 @@
         <v>1424</v>
       </c>
       <c r="B27" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C27" t="s">
         <v>1423</v>
@@ -12002,7 +12022,7 @@
         <v>1425</v>
       </c>
       <c r="B28" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C28" t="s">
         <v>1423</v>
@@ -12019,7 +12039,7 @@
         <v>1419</v>
       </c>
       <c r="D29" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E29" t="s">
         <v>1488</v>
@@ -12036,7 +12056,7 @@
         <v>1426</v>
       </c>
       <c r="D30" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E30" t="s">
         <v>954</v>
@@ -12058,7 +12078,7 @@
         <v>1429</v>
       </c>
       <c r="B32" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C32" t="s">
         <v>1427</v>
@@ -12075,7 +12095,7 @@
         <v>1426</v>
       </c>
       <c r="D33" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E33" t="s">
         <v>1489</v>
@@ -12086,7 +12106,7 @@
         <v>1431</v>
       </c>
       <c r="B34" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C34" t="s">
         <v>1430</v>
@@ -12103,7 +12123,7 @@
         <v>562</v>
       </c>
       <c r="D35" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E35" t="s">
         <v>1490</v>
@@ -12131,7 +12151,7 @@
         <v>1433</v>
       </c>
       <c r="D37" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E37" t="s">
         <v>1011</v>
@@ -12148,7 +12168,7 @@
         <v>1434</v>
       </c>
       <c r="D38" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E38" t="s">
         <v>1491</v>
@@ -12165,7 +12185,7 @@
         <v>1435</v>
       </c>
       <c r="D39" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E39" t="s">
         <v>1492</v>
@@ -12176,7 +12196,7 @@
         <v>1437</v>
       </c>
       <c r="B40" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C40" t="s">
         <v>1436</v>
@@ -12187,7 +12207,7 @@
         <v>1438</v>
       </c>
       <c r="B41" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C41" t="s">
         <v>1436</v>
@@ -12204,7 +12224,7 @@
         <v>1435</v>
       </c>
       <c r="D42" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E42" t="s">
         <v>1493</v>
@@ -12215,7 +12235,7 @@
         <v>1440</v>
       </c>
       <c r="B43" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C43" t="s">
         <v>1439</v>
@@ -12232,7 +12252,7 @@
         <v>1434</v>
       </c>
       <c r="D44" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E44" t="s">
         <v>930</v>
@@ -12243,7 +12263,7 @@
         <v>1442</v>
       </c>
       <c r="B45" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C45" t="s">
         <v>1441</v>
@@ -12260,7 +12280,7 @@
         <v>1434</v>
       </c>
       <c r="D46" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E46" t="s">
         <v>917</v>
@@ -12271,7 +12291,7 @@
         <v>1444</v>
       </c>
       <c r="B47" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C47" t="s">
         <v>1443</v>
@@ -12282,7 +12302,7 @@
         <v>1445</v>
       </c>
       <c r="B48" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C48" t="s">
         <v>1443</v>
@@ -12299,7 +12319,7 @@
         <v>1432</v>
       </c>
       <c r="D49" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E49" t="s">
         <v>1494</v>
@@ -12316,7 +12336,7 @@
         <v>1446</v>
       </c>
       <c r="D50" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E50" t="s">
         <v>949</v>
@@ -12333,7 +12353,7 @@
         <v>1447</v>
       </c>
       <c r="D51" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E51" t="s">
         <v>917</v>
@@ -12344,7 +12364,7 @@
         <v>1449</v>
       </c>
       <c r="B52" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C52" t="s">
         <v>1448</v>
@@ -12361,7 +12381,7 @@
         <v>1447</v>
       </c>
       <c r="D53" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E53" t="s">
         <v>968</v>
@@ -12372,7 +12392,7 @@
         <v>1451</v>
       </c>
       <c r="B54" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C54" t="s">
         <v>1450</v>
@@ -12383,7 +12403,7 @@
         <v>1452</v>
       </c>
       <c r="B55" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C55" t="s">
         <v>1450</v>
@@ -12503,7 +12523,7 @@
         <v>565</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>942</v>
@@ -12529,10 +12549,10 @@
         <v>566</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F5" s="11">
         <v>9904385660</v>
@@ -12561,7 +12581,7 @@
         <v>567</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>930</v>
@@ -12643,7 +12663,7 @@
         <v>566</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>967</v>
@@ -12675,7 +12695,7 @@
         <v>568</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>968</v>
@@ -12759,7 +12779,7 @@
         <v>568</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>969</v>
@@ -12815,7 +12835,7 @@
         <v>566</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>936</v>
@@ -12905,7 +12925,7 @@
         <v>570</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>971</v>
@@ -12963,7 +12983,7 @@
         <v>570</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>968</v>
@@ -13047,7 +13067,7 @@
         <v>566</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>1488</v>
@@ -13074,10 +13094,10 @@
         <v>572</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F24" s="11">
         <v>9974423072</v>
@@ -13151,7 +13171,7 @@
         <v>566</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>972</v>
@@ -13183,7 +13203,7 @@
         <v>574</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>973</v>
@@ -13239,7 +13259,7 @@
         <v>574</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>974</v>
@@ -13271,7 +13291,7 @@
         <v>565</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>1406</v>
@@ -13287,13 +13307,13 @@
         <v>576</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>575</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>975</v>
@@ -13313,13 +13333,13 @@
         <v>352</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>576</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>976</v>
@@ -13351,7 +13371,7 @@
         <v>352</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>977</v>
@@ -13425,13 +13445,13 @@
         <v>356</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>959</v>
@@ -13529,13 +13549,13 @@
         <v>361</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>576</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>1400</v>
@@ -13567,7 +13587,7 @@
         <v>361</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>978</v>
@@ -13639,13 +13659,13 @@
         <v>369</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>576</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>965</v>
@@ -13668,19 +13688,19 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="11" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>1895</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>1896</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>369</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="F46" s="11">
         <v>9099988043</v>
@@ -13709,7 +13729,7 @@
         <v>575</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>916</v>
@@ -13735,7 +13755,7 @@
         <v>580</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>943</v>
@@ -13767,7 +13787,7 @@
         <v>375</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>980</v>
@@ -13793,7 +13813,7 @@
         <v>581</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>379</v>
@@ -13845,7 +13865,7 @@
         <v>375</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>981</v>
@@ -13899,7 +13919,7 @@
         <v>580</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>915</v>
@@ -13981,7 +14001,7 @@
         <v>565</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>1143</v>
@@ -14003,7 +14023,7 @@
         <v>583</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>982</v>
@@ -14029,7 +14049,7 @@
         <v>584</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>928</v>
@@ -14073,7 +14093,7 @@
         <v>584</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>964</v>
@@ -14135,7 +14155,7 @@
         <v>583</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>983</v>
@@ -14161,7 +14181,7 @@
         <v>586</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>984</v>
@@ -14207,7 +14227,7 @@
         <v>586</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>945</v>
@@ -14253,7 +14273,7 @@
         <v>583</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>943</v>
@@ -14279,7 +14299,7 @@
         <v>587</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>985</v>
@@ -14305,7 +14325,7 @@
         <v>587</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>955</v>
@@ -14333,7 +14353,7 @@
         <v>583</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>957</v>
@@ -14361,7 +14381,7 @@
         <v>588</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>986</v>
@@ -14411,7 +14431,7 @@
         <v>588</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>939</v>
@@ -14457,7 +14477,7 @@
         <v>1076</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>1144</v>
@@ -14470,16 +14490,16 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="11" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>1562</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>1563</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>1077</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>982</v>
@@ -14501,7 +14521,7 @@
         <v>1077</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>916</v>
@@ -14523,7 +14543,7 @@
         <v>1078</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>943</v>
@@ -14545,7 +14565,7 @@
         <v>1079</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>978</v>
@@ -14613,7 +14633,7 @@
         <v>1078</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>930</v>
@@ -14679,10 +14699,10 @@
         <v>1088</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="F87" s="11">
         <v>6353553004</v>
@@ -14705,7 +14725,7 @@
         <v>1089</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>971</v>
@@ -14731,7 +14751,7 @@
         <v>1090</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>1397</v>
@@ -14775,7 +14795,7 @@
         <v>1089</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>1003</v>
@@ -14821,10 +14841,10 @@
         <v>1089</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F93" s="11">
         <v>9322244035</v>
@@ -14885,7 +14905,7 @@
         <v>1097</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>976</v>
@@ -14907,10 +14927,10 @@
         <v>1098</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
@@ -14929,7 +14949,7 @@
         <v>1099</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>923</v>
@@ -14975,10 +14995,10 @@
         <v>1097</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
@@ -14997,7 +15017,7 @@
         <v>1103</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>920</v>
@@ -15019,10 +15039,10 @@
         <v>1104</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F102" s="11">
         <v>9737293631</v>
@@ -15063,7 +15083,7 @@
         <v>1103</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>951</v>
@@ -16306,7 +16326,7 @@
         <v>411</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E5" t="s">
         <v>954</v>
@@ -16379,7 +16399,7 @@
         <v>411</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E9" t="s">
         <v>917</v>
@@ -16454,7 +16474,7 @@
         <v>419</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E13" t="s">
         <v>955</v>
@@ -16514,7 +16534,7 @@
         <v>419</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E16" t="s">
         <v>956</v>
@@ -16597,16 +16617,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B21" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>428</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E21" t="s">
         <v>953</v>
@@ -16623,13 +16643,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B22" t="s">
         <v>799</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D22" s="7"/>
       <c r="F22" s="7"/>
@@ -16642,13 +16662,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B23" t="s">
         <v>800</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D23" s="7"/>
       <c r="F23" s="7"/>
@@ -16670,7 +16690,7 @@
         <v>428</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E24" t="s">
         <v>925</v>
@@ -16690,7 +16710,7 @@
         <v>432</v>
       </c>
       <c r="B25" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>431</v>
@@ -16734,7 +16754,7 @@
         <v>428</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E27" t="s">
         <v>957</v>
@@ -16828,7 +16848,7 @@
         <v>438</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E32" t="s">
         <v>958</v>
@@ -16894,7 +16914,7 @@
         <v>438</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E35" t="s">
         <v>959</v>
@@ -16973,7 +16993,7 @@
         <v>446</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E39" t="s">
         <v>960</v>
@@ -17039,7 +17059,7 @@
         <v>446</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E42" t="s">
         <v>961</v>
@@ -17118,7 +17138,7 @@
         <v>454</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E46" t="s">
         <v>955</v>
@@ -17182,7 +17202,7 @@
         <v>454</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E49" t="s">
         <v>962</v>
@@ -17202,7 +17222,7 @@
         <v>459</v>
       </c>
       <c r="B50" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>458</v>
@@ -17259,7 +17279,7 @@
         <v>461</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E53" t="s">
         <v>963</v>
@@ -17285,7 +17305,7 @@
         <v>462</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E54" t="s">
         <v>964</v>
@@ -17345,7 +17365,7 @@
         <v>462</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E57" t="s">
         <v>965</v>
@@ -17430,7 +17450,7 @@
         <v>462</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E61" t="s">
         <v>966</v>
@@ -17547,7 +17567,7 @@
         <v>196</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="E2" t="s">
         <v>914</v>
@@ -17567,7 +17587,7 @@
         <v>474</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E3" t="s">
         <v>916</v>
@@ -17590,7 +17610,7 @@
         <v>475</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E4" t="s">
         <v>915</v>
@@ -17625,7 +17645,7 @@
         <v>475</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E6" t="s">
         <v>917</v>
@@ -17651,7 +17671,7 @@
         <v>478</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="E7" t="s">
         <v>918</v>
@@ -17711,7 +17731,7 @@
         <v>478</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E10" t="s">
         <v>919</v>
@@ -17771,7 +17791,7 @@
         <v>475</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E13" t="s">
         <v>920</v>
@@ -17812,7 +17832,7 @@
         <v>474</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E15" t="s">
         <v>921</v>
@@ -17832,7 +17852,7 @@
         <v>487</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E16" t="s">
         <v>922</v>
@@ -17858,7 +17878,7 @@
         <v>160</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E17" t="s">
         <v>923</v>
@@ -17918,7 +17938,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E20" t="s">
         <v>924</v>
@@ -17972,7 +17992,7 @@
         <v>487</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E23" t="s">
         <v>925</v>
@@ -17998,7 +18018,7 @@
         <v>491</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E24" t="s">
         <v>926</v>
@@ -18058,7 +18078,7 @@
         <v>491</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E27" t="s">
         <v>927</v>
@@ -18118,7 +18138,7 @@
         <v>487</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E30" t="s">
         <v>928</v>
@@ -18165,7 +18185,7 @@
         <v>474</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E32" t="s">
         <v>929</v>
@@ -18185,7 +18205,7 @@
         <v>501</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E33" t="s">
         <v>930</v>
@@ -18211,7 +18231,7 @@
         <v>502</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E34" t="s">
         <v>931</v>
@@ -18271,7 +18291,7 @@
         <v>502</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E37" t="s">
         <v>932</v>
@@ -18314,7 +18334,7 @@
         <v>501</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E39" t="s">
         <v>933</v>
@@ -18334,7 +18354,7 @@
         <v>508</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E40" t="s">
         <v>934</v>
@@ -18394,7 +18414,7 @@
         <v>508</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E43" t="s">
         <v>935</v>
@@ -18452,7 +18472,7 @@
         <v>501</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E46" t="s">
         <v>936</v>
@@ -18499,7 +18519,7 @@
         <v>474</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E48" t="s">
         <v>937</v>
@@ -18519,7 +18539,7 @@
         <v>519</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E49" t="s">
         <v>938</v>
@@ -18545,7 +18565,7 @@
         <v>520</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E50" t="s">
         <v>939</v>
@@ -18622,7 +18642,7 @@
         <v>519</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E54" t="s">
         <v>940</v>
@@ -18648,7 +18668,7 @@
         <v>525</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E55" t="s">
         <v>941</v>
@@ -18729,7 +18749,7 @@
         <v>474</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E59" t="s">
         <v>942</v>
@@ -18749,7 +18769,7 @@
         <v>531</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E60" t="s">
         <v>943</v>
@@ -18775,7 +18795,7 @@
         <v>532</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E61" t="s">
         <v>944</v>
@@ -18835,7 +18855,7 @@
         <v>532</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E64" t="s">
         <v>945</v>
@@ -18878,7 +18898,7 @@
         <v>531</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E66" t="s">
         <v>946</v>
@@ -18904,7 +18924,7 @@
         <v>538</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E67" t="s">
         <v>947</v>
@@ -18964,7 +18984,7 @@
         <v>538</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E70" t="s">
         <v>948</v>
@@ -19007,7 +19027,7 @@
         <v>474</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E72" t="s">
         <v>949</v>
@@ -19027,7 +19047,7 @@
         <v>544</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E73" t="s">
         <v>930</v>
@@ -19053,7 +19073,7 @@
         <v>545</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="E74" t="s">
         <v>945</v>
@@ -19096,7 +19116,7 @@
         <v>545</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E76" t="s">
         <v>950</v>
@@ -19139,7 +19159,7 @@
         <v>544</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E78" t="s">
         <v>951</v>
@@ -19165,7 +19185,7 @@
         <v>551</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E79" t="s">
         <v>926</v>
@@ -19191,7 +19211,7 @@
         <v>551</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E80" t="s">
         <v>952</v>
@@ -19234,7 +19254,7 @@
         <v>544</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E82" t="s">
         <v>953</v>
@@ -19388,7 +19408,7 @@
         <v>1345</v>
       </c>
       <c r="D5" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E5" t="s">
         <v>1394</v>
@@ -19402,13 +19422,13 @@
         <v>1347</v>
       </c>
       <c r="B6" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C6" t="s">
         <v>1346</v>
       </c>
       <c r="D6" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E6" t="s">
         <v>940</v>
@@ -19422,7 +19442,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B7" t="s">
         <v>1375</v>
@@ -19431,7 +19451,7 @@
         <v>1347</v>
       </c>
       <c r="D7" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E7" t="s">
         <v>955</v>
@@ -19445,13 +19465,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B8" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C8" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="G8" t="s">
         <v>1081</v>
@@ -19459,13 +19479,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C9" t="s">
         <v>1647</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1648</v>
       </c>
       <c r="G9" t="s">
         <v>1081</v>
@@ -19473,7 +19493,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B10" t="s">
         <v>1376</v>
@@ -19482,7 +19502,7 @@
         <v>1347</v>
       </c>
       <c r="D10" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E10" t="s">
         <v>1395</v>
@@ -19499,10 +19519,10 @@
         <v>1348</v>
       </c>
       <c r="B11" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C11" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G11" t="s">
         <v>1081</v>
@@ -19510,10 +19530,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B12" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C12" t="s">
         <v>1346</v>
@@ -19521,16 +19541,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B13" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D13" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E13" t="s">
         <v>958</v>
@@ -19547,10 +19567,10 @@
         <v>1350</v>
       </c>
       <c r="B14" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C14" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -19558,13 +19578,13 @@
         <v>1351</v>
       </c>
       <c r="B15" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C15" t="s">
         <v>1346</v>
       </c>
       <c r="D15" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E15" t="s">
         <v>1396</v>
@@ -19578,7 +19598,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B16" t="s">
         <v>1377</v>
@@ -19587,7 +19607,7 @@
         <v>1351</v>
       </c>
       <c r="D16" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E16" t="s">
         <v>1005</v>
@@ -19601,24 +19621,24 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B17" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C17" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B18" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C18" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -19654,7 +19674,7 @@
         <v>1353</v>
       </c>
       <c r="D21" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E21" t="s">
         <v>943</v>
@@ -19668,7 +19688,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B22" t="s">
         <v>1381</v>
@@ -19677,7 +19697,7 @@
         <v>1354</v>
       </c>
       <c r="D22" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E22" t="s">
         <v>1397</v>
@@ -19694,10 +19714,10 @@
         <v>1355</v>
       </c>
       <c r="B23" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C23" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -19728,7 +19748,7 @@
         <v>1353</v>
       </c>
       <c r="D25" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E25" t="s">
         <v>1398</v>
@@ -19785,7 +19805,7 @@
         <v>1352</v>
       </c>
       <c r="D28" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E28" t="s">
         <v>1399</v>
@@ -19805,7 +19825,7 @@
         <v>1362</v>
       </c>
       <c r="D29" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E29" t="s">
         <v>915</v>
@@ -19819,7 +19839,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B30" t="s">
         <v>1388</v>
@@ -19828,7 +19848,7 @@
         <v>1363</v>
       </c>
       <c r="D30" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E30" t="s">
         <v>1400</v>
@@ -19845,10 +19865,10 @@
         <v>1364</v>
       </c>
       <c r="B31" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C31" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -19856,15 +19876,15 @@
         <v>1365</v>
       </c>
       <c r="B32" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C32" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B33" t="s">
         <v>1389</v>
@@ -19873,7 +19893,7 @@
         <v>1363</v>
       </c>
       <c r="D33" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E33" t="s">
         <v>935</v>
@@ -19890,15 +19910,15 @@
         <v>1366</v>
       </c>
       <c r="B34" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C34" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B35" t="s">
         <v>1390</v>
@@ -19907,7 +19927,7 @@
         <v>1363</v>
       </c>
       <c r="D35" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E35" t="s">
         <v>1401</v>
@@ -19924,24 +19944,24 @@
         <v>1367</v>
       </c>
       <c r="B36" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C36" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B37" t="s">
         <v>1642</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1643</v>
       </c>
       <c r="C37" t="s">
         <v>1362</v>
       </c>
       <c r="D37" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E37" t="s">
         <v>1402</v>
@@ -19955,13 +19975,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B38" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C38" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F38">
         <v>6353853253</v>
@@ -19981,7 +20001,7 @@
         <v>1362</v>
       </c>
       <c r="D39" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E39" t="s">
         <v>1403</v>
